--- a/value_by_momentum_strategy.xlsx
+++ b/value_by_momentum_strategy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="515">
   <si>
     <t>Ticker</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Number of Shares to Buy</t>
   </si>
   <si>
+    <t>Date of Quote</t>
+  </si>
+  <si>
     <t>PAYC</t>
   </si>
   <si>
@@ -1550,6 +1553,9 @@
   </si>
   <si>
     <t>HRB</t>
+  </si>
+  <si>
+    <t>12/15/2020</t>
   </si>
   <si>
     <t>Stock Price</t>
@@ -1939,7 +1945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G506"/>
+  <dimension ref="A1:H506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1952,14 +1958,15 @@
     <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -1976,10 +1983,13 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>431.28</v>
@@ -1999,10 +2009,13 @@
       <c r="G2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>97.36</v>
@@ -2022,10 +2035,13 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>152.695</v>
@@ -2045,10 +2061,13 @@
       <c r="G4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>289.18</v>
@@ -2068,10 +2087,13 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>507.37</v>
@@ -2091,10 +2113,13 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>448.93</v>
@@ -2114,10 +2139,13 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>455.04</v>
@@ -2137,10 +2165,13 @@
       <c r="G8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>532.3049999999999</v>
@@ -2160,10 +2191,13 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
         <v>219.88</v>
@@ -2183,10 +2217,13 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2">
         <v>499.91</v>
@@ -2206,10 +2243,13 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>196.295</v>
@@ -2229,10 +2269,13 @@
       <c r="G12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2">
         <v>141.605</v>
@@ -2252,10 +2295,13 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>383.06</v>
@@ -2275,10 +2321,13 @@
       <c r="G14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>86.30500000000001</v>
@@ -2298,10 +2347,13 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>52.79</v>
@@ -2321,10 +2373,13 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <v>262.42</v>
@@ -2344,10 +2399,13 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>209.96</v>
@@ -2367,10 +2425,13 @@
       <c r="G18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>123.68</v>
@@ -2390,10 +2451,13 @@
       <c r="G19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
         <v>138.06</v>
@@ -2413,10 +2477,13 @@
       <c r="G20" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
         <v>549.72</v>
@@ -2436,10 +2503,13 @@
       <c r="G21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
         <v>148.99</v>
@@ -2459,10 +2529,13 @@
       <c r="G22" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
         <v>89.5</v>
@@ -2482,10 +2555,13 @@
       <c r="G23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2">
         <v>535.64</v>
@@ -2505,10 +2581,13 @@
       <c r="G24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
         <v>136.52</v>
@@ -2528,10 +2607,13 @@
       <c r="G25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2">
         <v>242.395</v>
@@ -2551,10 +2633,13 @@
       <c r="G26" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>518.91</v>
@@ -2574,10 +2659,13 @@
       <c r="G27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>426.19</v>
@@ -2597,10 +2685,13 @@
       <c r="G28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
         <v>363.69</v>
@@ -2620,10 +2711,13 @@
       <c r="G29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
         <v>117.2</v>
@@ -2643,10 +2737,13 @@
       <c r="G30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2">
         <v>765.525</v>
@@ -2666,10 +2763,13 @@
       <c r="G31" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2">
         <v>146.585</v>
@@ -2689,10 +2789,13 @@
       <c r="G32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2">
         <v>415.15</v>
@@ -2712,10 +2815,13 @@
       <c r="G33" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
         <v>1146.075</v>
@@ -2735,10 +2841,13 @@
       <c r="G34" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>348.09</v>
@@ -2758,10 +2867,13 @@
       <c r="G35" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>125.865</v>
@@ -2781,10 +2893,13 @@
       <c r="G36" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>120.705</v>
@@ -2804,10 +2919,13 @@
       <c r="G37" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
         <v>38.655</v>
@@ -2827,10 +2945,13 @@
       <c r="G38" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2">
         <v>159.78</v>
@@ -2850,10 +2971,13 @@
       <c r="G39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="2">
         <v>212.83</v>
@@ -2873,10 +2997,13 @@
       <c r="G40" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="2">
         <v>1333.65</v>
@@ -2896,10 +3023,13 @@
       <c r="G41" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2">
         <v>130.49</v>
@@ -2919,10 +3049,13 @@
       <c r="G42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2">
         <v>88.395</v>
@@ -2942,10 +3075,13 @@
       <c r="G43" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="2">
         <v>120.53</v>
@@ -2965,10 +3101,13 @@
       <c r="G44" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
         <v>15.385</v>
@@ -2988,10 +3127,13 @@
       <c r="G45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
         <v>485.46</v>
@@ -3011,10 +3153,13 @@
       <c r="G46" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2">
         <v>161.91</v>
@@ -3034,10 +3179,13 @@
       <c r="G47" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2">
         <v>17.835</v>
@@ -3057,10 +3205,13 @@
       <c r="G48" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2">
         <v>157.29</v>
@@ -3080,10 +3231,13 @@
       <c r="G49" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2">
         <v>144.005</v>
@@ -3103,10 +3257,13 @@
       <c r="G50" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2">
         <v>191.62</v>
@@ -3126,10 +3283,13 @@
       <c r="G51" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2">
         <v>278.63</v>
@@ -3149,10 +3309,13 @@
       <c r="G52" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2">
         <v>207.44</v>
@@ -3172,10 +3335,13 @@
       <c r="G53" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2">
         <v>124.125</v>
@@ -3195,10 +3361,13 @@
       <c r="G54" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2">
         <v>169.68</v>
@@ -3218,10 +3387,13 @@
       <c r="G55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2">
         <v>97.87</v>
@@ -3241,10 +3413,13 @@
       <c r="G56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2">
         <v>24.015</v>
@@ -3264,10 +3439,13 @@
       <c r="G57" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2">
         <v>148.93</v>
@@ -3287,10 +3465,13 @@
       <c r="G58" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" s="2">
         <v>271.925</v>
@@ -3310,10 +3491,13 @@
       <c r="G59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" s="2">
         <v>65.91</v>
@@ -3333,10 +3517,13 @@
       <c r="G60" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2">
         <v>73.23</v>
@@ -3356,10 +3543,13 @@
       <c r="G61" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2">
         <v>351.78</v>
@@ -3379,10 +3569,13 @@
       <c r="G62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2">
         <v>130.71</v>
@@ -3402,10 +3595,13 @@
       <c r="G63" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="2">
         <v>38.45</v>
@@ -3425,10 +3621,13 @@
       <c r="G64" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" s="2">
         <v>3166.99</v>
@@ -3448,10 +3647,13 @@
       <c r="G65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2">
         <v>36.515</v>
@@ -3471,10 +3673,13 @@
       <c r="G66" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" s="2">
         <v>49.5</v>
@@ -3494,10 +3699,13 @@
       <c r="G67" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2">
         <v>73.91</v>
@@ -3517,10 +3725,13 @@
       <c r="G68" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" s="2">
         <v>248.73</v>
@@ -3540,10 +3751,13 @@
       <c r="G69" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2">
         <v>266.725</v>
@@ -3563,10 +3777,13 @@
       <c r="G70" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" s="2">
         <v>32.705</v>
@@ -3586,10 +3803,13 @@
       <c r="G71" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2">
         <v>50.675</v>
@@ -3609,10 +3829,13 @@
       <c r="G72" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2">
         <v>9.574999999999999</v>
@@ -3632,10 +3855,13 @@
       <c r="G73" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2">
         <v>86.465</v>
@@ -3655,10 +3881,13 @@
       <c r="G74" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2">
         <v>84.515</v>
@@ -3678,10 +3907,13 @@
       <c r="G75" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2">
         <v>24.94</v>
@@ -3701,10 +3933,13 @@
       <c r="G76" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2">
         <v>91.63</v>
@@ -3724,10 +3959,13 @@
       <c r="G77" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2">
         <v>2063.13</v>
@@ -3747,10 +3985,13 @@
       <c r="G78" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2">
         <v>174.34</v>
@@ -3770,10 +4011,13 @@
       <c r="G79" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2">
         <v>104.27</v>
@@ -3793,10 +4037,13 @@
       <c r="G80" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2">
         <v>1760.72</v>
@@ -3816,10 +4063,13 @@
       <c r="G81" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2">
         <v>351.49</v>
@@ -3839,10 +4089,13 @@
       <c r="G82" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="2">
         <v>221.845</v>
@@ -3862,10 +4115,13 @@
       <c r="G83" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2">
         <v>195.16</v>
@@ -3885,10 +4141,13 @@
       <c r="G84" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2">
         <v>466.1</v>
@@ -3908,10 +4167,13 @@
       <c r="G85" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2">
         <v>111.19</v>
@@ -3931,10 +4193,13 @@
       <c r="G86" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2">
         <v>127.6</v>
@@ -3954,10 +4219,13 @@
       <c r="G87" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2">
         <v>213.93</v>
@@ -3977,10 +4245,13 @@
       <c r="G88" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2">
         <v>161.53</v>
@@ -4000,10 +4271,13 @@
       <c r="G89" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2">
         <v>46.01</v>
@@ -4023,10 +4297,13 @@
       <c r="G90" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="2">
         <v>23.135</v>
@@ -4046,10 +4323,13 @@
       <c r="G91" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2">
         <v>169.94</v>
@@ -4069,10 +4349,13 @@
       <c r="G92" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2">
         <v>347.57</v>
@@ -4092,10 +4375,13 @@
       <c r="G93" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2">
         <v>267.18</v>
@@ -4115,10 +4401,13 @@
       <c r="G94" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2">
         <v>601.175</v>
@@ -4138,10 +4427,13 @@
       <c r="G95" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2">
         <v>89.55</v>
@@ -4161,10 +4453,13 @@
       <c r="G96" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2">
         <v>158.87</v>
@@ -4184,10 +4479,13 @@
       <c r="G97" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2">
         <v>694.08</v>
@@ -4207,10 +4505,13 @@
       <c r="G98" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2">
         <v>139.33</v>
@@ -4230,10 +4531,13 @@
       <c r="G99" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2">
         <v>116.625</v>
@@ -4253,10 +4557,13 @@
       <c r="G100" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2">
         <v>1753.6</v>
@@ -4276,10 +4583,13 @@
       <c r="G101" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2">
         <v>232.31</v>
@@ -4299,10 +4609,13 @@
       <c r="G102" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2">
         <v>92.015</v>
@@ -4322,10 +4635,13 @@
       <c r="G103" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2">
         <v>43.975</v>
@@ -4345,10 +4661,13 @@
       <c r="G104" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2">
         <v>129.65</v>
@@ -4368,10 +4687,13 @@
       <c r="G105" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2">
         <v>131.05</v>
@@ -4391,10 +4713,13 @@
       <c r="G106" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2">
         <v>329.35</v>
@@ -4414,10 +4739,13 @@
       <c r="G107" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2">
         <v>426.795</v>
@@ -4437,10 +4765,13 @@
       <c r="G108" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2">
         <v>236.13</v>
@@ -4460,10 +4791,13 @@
       <c r="G109" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2">
         <v>195.75</v>
@@ -4483,10 +4817,13 @@
       <c r="G110" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2">
         <v>117.295</v>
@@ -4506,10 +4843,13 @@
       <c r="G111" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2">
         <v>61.97</v>
@@ -4529,10 +4869,13 @@
       <c r="G112" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2">
         <v>101</v>
@@ -4552,10 +4895,13 @@
       <c r="G113" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2">
         <v>118.05</v>
@@ -4575,10 +4921,13 @@
       <c r="G114" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2">
         <v>146.62</v>
@@ -4598,10 +4947,13 @@
       <c r="G115" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" s="2">
         <v>65.55</v>
@@ -4621,10 +4973,13 @@
       <c r="G116" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117" s="2">
         <v>245.23</v>
@@ -4644,10 +4999,13 @@
       <c r="G117" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2">
         <v>76.69499999999999</v>
@@ -4667,10 +5025,13 @@
       <c r="G118" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B119" s="2">
         <v>174.385</v>
@@ -4690,10 +5051,13 @@
       <c r="G119" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2">
         <v>192.08</v>
@@ -4713,10 +5077,13 @@
       <c r="G120" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2">
         <v>104.03</v>
@@ -4736,10 +5103,13 @@
       <c r="G121" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B122" s="2">
         <v>22.94</v>
@@ -4759,10 +5129,13 @@
       <c r="G122" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B123" s="2">
         <v>258.03</v>
@@ -4782,10 +5155,13 @@
       <c r="G123" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B124" s="2">
         <v>220.13</v>
@@ -4805,10 +5181,13 @@
       <c r="G124" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2">
         <v>272.87</v>
@@ -4828,10 +5207,13 @@
       <c r="G125" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2">
         <v>88.16</v>
@@ -4851,10 +5233,13 @@
       <c r="G126" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2">
         <v>86.41</v>
@@ -4874,10 +5259,13 @@
       <c r="G127" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2">
         <v>179.55</v>
@@ -4897,10 +5285,13 @@
       <c r="G128" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2">
         <v>344.19</v>
@@ -4920,10 +5311,13 @@
       <c r="G129" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2">
         <v>207.12</v>
@@ -4943,10 +5337,13 @@
       <c r="G130" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2">
         <v>286.38</v>
@@ -4966,10 +5363,13 @@
       <c r="G131" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2">
         <v>36.77</v>
@@ -4989,10 +5389,13 @@
       <c r="G132" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7">
+      <c r="H132" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2">
         <v>718.3</v>
@@ -5012,10 +5415,13 @@
       <c r="G133" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="H133" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2">
         <v>29.465</v>
@@ -5035,10 +5441,13 @@
       <c r="G134" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="H134" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B135" s="2">
         <v>353.985</v>
@@ -5058,10 +5467,13 @@
       <c r="G135" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B136" s="2">
         <v>382.63</v>
@@ -5081,10 +5493,13 @@
       <c r="G136" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2">
         <v>81.48999999999999</v>
@@ -5104,10 +5519,13 @@
       <c r="G137" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="H137" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2">
         <v>173.575</v>
@@ -5127,10 +5545,13 @@
       <c r="G138" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7">
+      <c r="H138" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2">
         <v>187.28</v>
@@ -5150,10 +5571,13 @@
       <c r="G139" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7">
+      <c r="H139" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2">
         <v>114.04</v>
@@ -5173,10 +5597,13 @@
       <c r="G140" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7">
+      <c r="H140" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2">
         <v>209.59</v>
@@ -5196,10 +5623,13 @@
       <c r="G141" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7">
+      <c r="H141" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2">
         <v>17.575</v>
@@ -5219,10 +5649,13 @@
       <c r="G142" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
+      <c r="H142" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2">
         <v>374.28</v>
@@ -5242,10 +5675,13 @@
       <c r="G143" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
+      <c r="H143" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2">
         <v>10.8</v>
@@ -5265,10 +5701,13 @@
       <c r="G144" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="H144" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2">
         <v>204.815</v>
@@ -5288,10 +5727,13 @@
       <c r="G145" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2">
         <v>122.33</v>
@@ -5311,10 +5753,13 @@
       <c r="G146" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2">
         <v>109</v>
@@ -5334,10 +5779,13 @@
       <c r="G147" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B148" s="2">
         <v>112.9</v>
@@ -5357,10 +5805,13 @@
       <c r="G148" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B149" s="2">
         <v>106.77</v>
@@ -5380,10 +5831,13 @@
       <c r="G149" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B150" s="2">
         <v>385.51</v>
@@ -5403,10 +5857,13 @@
       <c r="G150" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="H150" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B151" s="2">
         <v>242.755</v>
@@ -5426,10 +5883,13 @@
       <c r="G151" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2">
         <v>129.275</v>
@@ -5449,10 +5909,13 @@
       <c r="G152" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B153" s="2">
         <v>167.34</v>
@@ -5472,10 +5935,13 @@
       <c r="G153" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="H153" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B154" s="2">
         <v>192.51</v>
@@ -5495,10 +5961,13 @@
       <c r="G154" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="H154" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B155" s="2">
         <v>579.64</v>
@@ -5518,10 +5987,13 @@
       <c r="G155" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="H155" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B156" s="2">
         <v>66.43000000000001</v>
@@ -5541,10 +6013,13 @@
       <c r="G156" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B157" s="2">
         <v>647.36</v>
@@ -5564,10 +6039,13 @@
       <c r="G157" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="H157" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B158" s="2">
         <v>69.06999999999999</v>
@@ -5587,10 +6065,13 @@
       <c r="G158" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="H158" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B159" s="2">
         <v>155.355</v>
@@ -5610,10 +6091,13 @@
       <c r="G159" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="H159" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B160" s="2">
         <v>123.9</v>
@@ -5633,10 +6117,13 @@
       <c r="G160" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B161" s="2">
         <v>75.81999999999999</v>
@@ -5656,10 +6143,13 @@
       <c r="G161" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="H161" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B162" s="2">
         <v>114.07</v>
@@ -5679,10 +6169,13 @@
       <c r="G162" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B163" s="2">
         <v>53.85</v>
@@ -5702,10 +6195,13 @@
       <c r="G163" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="H163" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B164" s="2">
         <v>84.43000000000001</v>
@@ -5725,10 +6221,13 @@
       <c r="G164" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B165" s="2">
         <v>403.555</v>
@@ -5748,10 +6247,13 @@
       <c r="G165" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B166" s="2">
         <v>79.38</v>
@@ -5771,10 +6273,13 @@
       <c r="G166" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="H166" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B167" s="2">
         <v>133.095</v>
@@ -5794,10 +6299,13 @@
       <c r="G167" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="H167" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B168" s="2">
         <v>222.88</v>
@@ -5817,10 +6325,13 @@
       <c r="G168" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B169" s="2">
         <v>201.45</v>
@@ -5840,10 +6351,13 @@
       <c r="G169" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="H169" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B170" s="2">
         <v>26.73</v>
@@ -5863,10 +6377,13 @@
       <c r="G170" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="H170" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B171" s="2">
         <v>212.835</v>
@@ -5886,10 +6403,13 @@
       <c r="G171" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="H171" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B172" s="2">
         <v>150.065</v>
@@ -5909,10 +6429,13 @@
       <c r="G172" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="H172" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B173" s="2">
         <v>246.65</v>
@@ -5932,10 +6455,13 @@
       <c r="G173" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="H173" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B174" s="2">
         <v>172.47</v>
@@ -5955,10 +6481,13 @@
       <c r="G174" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="H174" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B175" s="2">
         <v>271.99</v>
@@ -5978,10 +6507,13 @@
       <c r="G175" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="H175" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B176" s="2">
         <v>145.8</v>
@@ -6001,10 +6533,13 @@
       <c r="G176" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B177" s="2">
         <v>196.88</v>
@@ -6024,10 +6559,13 @@
       <c r="G177" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B178" s="2">
         <v>82.2</v>
@@ -6047,10 +6585,13 @@
       <c r="G178" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B179" s="2">
         <v>89.54000000000001</v>
@@ -6070,10 +6611,13 @@
       <c r="G179" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B180" s="2">
         <v>695.54</v>
@@ -6093,10 +6637,13 @@
       <c r="G180" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B181" s="2">
         <v>21.695</v>
@@ -6116,10 +6663,13 @@
       <c r="G181" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B182" s="2">
         <v>65.59</v>
@@ -6139,10 +6689,13 @@
       <c r="G182" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B183" s="2">
         <v>99.05</v>
@@ -6162,10 +6715,13 @@
       <c r="G183" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B184" s="2">
         <v>155.48</v>
@@ -6185,10 +6741,13 @@
       <c r="G184" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B185" s="2">
         <v>169.08</v>
@@ -6208,10 +6767,13 @@
       <c r="G185" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B186" s="2">
         <v>40.28</v>
@@ -6231,10 +6793,13 @@
       <c r="G186" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B187" s="2">
         <v>223.57</v>
@@ -6254,10 +6819,13 @@
       <c r="G187" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B188" s="2">
         <v>138.655</v>
@@ -6277,10 +6845,13 @@
       <c r="G188" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B189" s="2">
         <v>219.48</v>
@@ -6300,10 +6871,13 @@
       <c r="G189" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B190" s="2">
         <v>131.2</v>
@@ -6323,10 +6897,13 @@
       <c r="G190" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B191" s="2">
         <v>263.84</v>
@@ -6346,10 +6923,13 @@
       <c r="G191" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B192" s="2">
         <v>87.45999999999999</v>
@@ -6369,10 +6949,13 @@
       <c r="G192" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="H192" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B193" s="2">
         <v>205.25</v>
@@ -6392,10 +6975,13 @@
       <c r="G193" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B194" s="2">
         <v>51.96</v>
@@ -6415,10 +7001,13 @@
       <c r="G194" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B195" s="2">
         <v>276.09</v>
@@ -6438,10 +7027,13 @@
       <c r="G195" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B196" s="2">
         <v>144.12</v>
@@ -6461,10 +7053,13 @@
       <c r="G196" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="H196" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B197" s="2">
         <v>55.77</v>
@@ -6484,10 +7079,13 @@
       <c r="G197" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="H197" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B198" s="2">
         <v>150.41</v>
@@ -6507,10 +7105,13 @@
       <c r="G198" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B199" s="2">
         <v>19.46</v>
@@ -6530,10 +7131,13 @@
       <c r="G199" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="H199" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B200" s="2">
         <v>57.2</v>
@@ -6553,10 +7157,13 @@
       <c r="G200" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="H200" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B201" s="2">
         <v>38.845</v>
@@ -6576,10 +7183,13 @@
       <c r="G201" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="H201" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B202" s="2">
         <v>106.18</v>
@@ -6599,10 +7209,13 @@
       <c r="G202" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B203" s="2">
         <v>113.955</v>
@@ -6622,10 +7235,13 @@
       <c r="G203" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B204" s="2">
         <v>250.18</v>
@@ -6645,10 +7261,13 @@
       <c r="G204" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="H204" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B205" s="2">
         <v>38.09</v>
@@ -6668,10 +7287,13 @@
       <c r="G205" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7">
+      <c r="H205" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B206" s="2">
         <v>44.44</v>
@@ -6691,10 +7313,13 @@
       <c r="G206" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B207" s="2">
         <v>114.77</v>
@@ -6714,10 +7339,13 @@
       <c r="G207" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7">
+      <c r="H207" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B208" s="2">
         <v>129.2</v>
@@ -6737,10 +7365,13 @@
       <c r="G208" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7">
+      <c r="H208" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B209" s="2">
         <v>111.095</v>
@@ -6760,10 +7391,13 @@
       <c r="G209" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7">
+      <c r="H209" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B210" s="2">
         <v>56.125</v>
@@ -6783,10 +7417,13 @@
       <c r="G210" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B211" s="2">
         <v>142.78</v>
@@ -6806,10 +7443,13 @@
       <c r="G211" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7">
+      <c r="H211" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B212" s="2">
         <v>270.95</v>
@@ -6829,10 +7469,13 @@
       <c r="G212" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7">
+      <c r="H212" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B213" s="2">
         <v>325.35</v>
@@ -6852,10 +7495,13 @@
       <c r="G213" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7">
+      <c r="H213" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B214" s="2">
         <v>46.705</v>
@@ -6875,10 +7521,13 @@
       <c r="G214" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7">
+      <c r="H214" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B215" s="2">
         <v>178.31</v>
@@ -6898,10 +7547,13 @@
       <c r="G215" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
+      <c r="H215" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B216" s="2">
         <v>86.79000000000001</v>
@@ -6921,10 +7573,13 @@
       <c r="G216" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7">
+      <c r="H216" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B217" s="2">
         <v>61.305</v>
@@ -6944,10 +7599,13 @@
       <c r="G217" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7">
+      <c r="H217" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B218" s="2">
         <v>21.88</v>
@@ -6967,10 +7625,13 @@
       <c r="G218" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7">
+      <c r="H218" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B219" s="2">
         <v>27.97</v>
@@ -6990,10 +7651,13 @@
       <c r="G219" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7">
+      <c r="H219" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B220" s="2">
         <v>38.575</v>
@@ -7013,10 +7677,13 @@
       <c r="G220" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7">
+      <c r="H220" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B221" s="2">
         <v>38.855</v>
@@ -7036,10 +7703,13 @@
       <c r="G221" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B222" s="2">
         <v>74.22</v>
@@ -7059,10 +7729,13 @@
       <c r="G222" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
+      <c r="H222" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B223" s="2">
         <v>109.73</v>
@@ -7082,10 +7755,13 @@
       <c r="G223" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7">
+      <c r="H223" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B224" s="2">
         <v>103.86</v>
@@ -7105,10 +7781,13 @@
       <c r="G224" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
+      <c r="H224" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B225" s="2">
         <v>157.23</v>
@@ -7128,10 +7807,13 @@
       <c r="G225" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7">
+      <c r="H225" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B226" s="2">
         <v>29.68</v>
@@ -7151,10 +7833,13 @@
       <c r="G226" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7">
+      <c r="H226" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B227" s="2">
         <v>21.67</v>
@@ -7174,10 +7859,13 @@
       <c r="G227" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="H227" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B228" s="2">
         <v>229.855</v>
@@ -7197,10 +7885,13 @@
       <c r="G228" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7">
+      <c r="H228" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B229" s="2">
         <v>142.63</v>
@@ -7220,10 +7911,13 @@
       <c r="G229" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B230" s="2">
         <v>84.84999999999999</v>
@@ -7243,10 +7937,13 @@
       <c r="G230" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7">
+      <c r="H230" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B231" s="2">
         <v>217.23</v>
@@ -7266,10 +7963,13 @@
       <c r="G231" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
+      <c r="H231" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B232" s="2">
         <v>58.235</v>
@@ -7289,10 +7989,13 @@
       <c r="G232" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7">
+      <c r="H232" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B233" s="2">
         <v>56.445</v>
@@ -7312,10 +8015,13 @@
       <c r="G233" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
+      <c r="H233" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B234" s="2">
         <v>103.245</v>
@@ -7335,10 +8041,13 @@
       <c r="G234" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="H234" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B235" s="2">
         <v>106.06</v>
@@ -7358,10 +8067,13 @@
       <c r="G235" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="H235" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B236" s="2">
         <v>23.905</v>
@@ -7381,10 +8093,13 @@
       <c r="G236" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="H236" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B237" s="2">
         <v>53.52</v>
@@ -7404,10 +8119,13 @@
       <c r="G237" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7">
+      <c r="H237" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B238" s="2">
         <v>93.64</v>
@@ -7427,10 +8145,13 @@
       <c r="G238" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7">
+      <c r="H238" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B239" s="2">
         <v>71.16500000000001</v>
@@ -7450,10 +8171,13 @@
       <c r="G239" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7">
+      <c r="H239" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B240" s="2">
         <v>93.93000000000001</v>
@@ -7473,10 +8197,13 @@
       <c r="G240" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B241" s="2">
         <v>29.14</v>
@@ -7496,10 +8223,13 @@
       <c r="G241" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B242" s="2">
         <v>144.425</v>
@@ -7519,10 +8249,13 @@
       <c r="G242" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B243" s="2">
         <v>110.865</v>
@@ -7542,10 +8275,13 @@
       <c r="G243" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="H243" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B244" s="2">
         <v>46.51</v>
@@ -7565,10 +8301,13 @@
       <c r="G244" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="H244" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B245" s="2">
         <v>198.73</v>
@@ -7588,10 +8327,13 @@
       <c r="G245" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B246" s="2">
         <v>149.92</v>
@@ -7611,10 +8353,13 @@
       <c r="G246" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="H246" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B247" s="2">
         <v>42.12</v>
@@ -7634,10 +8379,13 @@
       <c r="G247" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="H247" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B248" s="2">
         <v>15.86</v>
@@ -7657,10 +8405,13 @@
       <c r="G248" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B249" s="2">
         <v>68.2</v>
@@ -7680,10 +8431,13 @@
       <c r="G249" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B250" s="2">
         <v>89.58</v>
@@ -7703,10 +8457,13 @@
       <c r="G250" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="H250" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B251" s="2">
         <v>74.705</v>
@@ -7726,10 +8483,13 @@
       <c r="G251" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="H251" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B252" s="2">
         <v>120.775</v>
@@ -7749,10 +8509,13 @@
       <c r="G252" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="H252" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B253" s="2">
         <v>17.345</v>
@@ -7772,10 +8535,13 @@
       <c r="G253" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="H253" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B254" s="2">
         <v>62.41</v>
@@ -7795,10 +8561,13 @@
       <c r="G254" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="H254" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B255" s="2">
         <v>97.92</v>
@@ -7818,10 +8587,13 @@
       <c r="G255" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="H255" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B256" s="2">
         <v>45.085</v>
@@ -7841,10 +8613,13 @@
       <c r="G256" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B257" s="2">
         <v>73.28</v>
@@ -7864,10 +8639,13 @@
       <c r="G257" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B258" s="2">
         <v>162.645</v>
@@ -7887,10 +8665,13 @@
       <c r="G258" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B259" s="2">
         <v>38.5</v>
@@ -7910,10 +8691,13 @@
       <c r="G259" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B260" s="2">
         <v>135.36</v>
@@ -7933,10 +8717,13 @@
       <c r="G260" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B261" s="2">
         <v>42.745</v>
@@ -7956,10 +8743,13 @@
       <c r="G261" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7">
+      <c r="H261" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B262" s="2">
         <v>37.755</v>
@@ -7979,10 +8769,13 @@
       <c r="G262" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7">
+      <c r="H262" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B263" s="2">
         <v>48.885</v>
@@ -8002,10 +8795,13 @@
       <c r="G263" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B264" s="2">
         <v>190.59</v>
@@ -8025,10 +8821,13 @@
       <c r="G264" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7">
+      <c r="H264" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B265" s="2">
         <v>110.25</v>
@@ -8048,10 +8847,13 @@
       <c r="G265" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7">
+      <c r="H265" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B266" s="2">
         <v>141.63</v>
@@ -8071,10 +8873,13 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7">
+      <c r="H266" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B267" s="2">
         <v>136.95</v>
@@ -8094,10 +8899,13 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7">
+      <c r="H267" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B268" s="2">
         <v>172.96</v>
@@ -8117,10 +8925,13 @@
       <c r="G268" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
+      <c r="H268" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B269" s="2">
         <v>51.505</v>
@@ -8140,10 +8951,13 @@
       <c r="G269" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7">
+      <c r="H269" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B270" s="2">
         <v>113.38</v>
@@ -8163,10 +8977,13 @@
       <c r="G270" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7">
+      <c r="H270" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B271" s="2">
         <v>90.285</v>
@@ -8186,10 +9003,13 @@
       <c r="G271" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7">
+      <c r="H271" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B272" s="2">
         <v>214.58</v>
@@ -8209,10 +9029,13 @@
       <c r="G272" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7">
+      <c r="H272" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B273" s="2">
         <v>54.555</v>
@@ -8232,10 +9055,13 @@
       <c r="G273" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7">
+      <c r="H273" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B274" s="2">
         <v>64.23</v>
@@ -8255,10 +9081,13 @@
       <c r="G274" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:7">
+      <c r="H274" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B275" s="2">
         <v>14.08</v>
@@ -8278,10 +9107,13 @@
       <c r="G275" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7">
+      <c r="H275" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B276" s="2">
         <v>174.67</v>
@@ -8301,10 +9133,13 @@
       <c r="G276" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7">
+      <c r="H276" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B277" s="2">
         <v>62.57</v>
@@ -8324,10 +9159,13 @@
       <c r="G277" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7">
+      <c r="H277" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B278" s="2">
         <v>128.15</v>
@@ -8347,10 +9185,13 @@
       <c r="G278" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7">
+      <c r="H278" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B279" s="2">
         <v>205.2</v>
@@ -8370,10 +9211,13 @@
       <c r="G279" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B280" s="2">
         <v>242.61</v>
@@ -8393,10 +9237,13 @@
       <c r="G280" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7">
+      <c r="H280" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B281" s="2">
         <v>151.9</v>
@@ -8416,10 +9263,13 @@
       <c r="G281" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7">
+      <c r="H281" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B282" s="2">
         <v>19.205</v>
@@ -8439,10 +9289,13 @@
       <c r="G282" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7">
+      <c r="H282" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B283" s="2">
         <v>386.33</v>
@@ -8462,10 +9315,13 @@
       <c r="G283" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7">
+      <c r="H283" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B284" s="2">
         <v>90.66</v>
@@ -8485,10 +9341,13 @@
       <c r="G284" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7">
+      <c r="H284" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B285" s="2">
         <v>98.62</v>
@@ -8508,10 +9367,13 @@
       <c r="G285" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:7">
+      <c r="H285" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B286" s="2">
         <v>74.23999999999999</v>
@@ -8531,10 +9393,13 @@
       <c r="G286" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="H286" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B287" s="2">
         <v>109.525</v>
@@ -8554,10 +9419,13 @@
       <c r="G287" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="H287" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B288" s="2">
         <v>57.515</v>
@@ -8577,10 +9445,13 @@
       <c r="G288" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7">
+      <c r="H288" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B289" s="2">
         <v>23.585</v>
@@ -8600,10 +9471,13 @@
       <c r="G289" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B290" s="2">
         <v>49.26</v>
@@ -8623,10 +9497,13 @@
       <c r="G290" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7">
+      <c r="H290" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B291" s="2">
         <v>43.83</v>
@@ -8646,10 +9523,13 @@
       <c r="G291" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7">
+      <c r="H291" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B292" s="2">
         <v>12.495</v>
@@ -8669,10 +9549,13 @@
       <c r="G292" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="H292" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B293" s="2">
         <v>90.02</v>
@@ -8692,10 +9575,13 @@
       <c r="G293" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7">
+      <c r="H293" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B294" s="2">
         <v>227.59</v>
@@ -8715,10 +9601,13 @@
       <c r="G294" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
+      <c r="H294" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B295" s="2">
         <v>167.45</v>
@@ -8738,10 +9627,13 @@
       <c r="G295" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7">
+      <c r="H295" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B296" s="2">
         <v>11.955</v>
@@ -8761,10 +9653,13 @@
       <c r="G296" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7">
+      <c r="H296" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B297" s="2">
         <v>22.4</v>
@@ -8784,10 +9679,13 @@
       <c r="G297" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B298" s="2">
         <v>267.55</v>
@@ -8807,10 +9705,13 @@
       <c r="G298" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:7">
+      <c r="H298" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B299" s="2">
         <v>15.115</v>
@@ -8830,10 +9731,13 @@
       <c r="G299" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B300" s="2">
         <v>17.955</v>
@@ -8853,10 +9757,13 @@
       <c r="G300" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7">
+      <c r="H300" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B301" s="2">
         <v>11</v>
@@ -8876,10 +9783,13 @@
       <c r="G301" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7">
+      <c r="H301" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B302" s="2">
         <v>159.52</v>
@@ -8899,10 +9809,13 @@
       <c r="G302" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B303" s="2">
         <v>132.06</v>
@@ -8922,10 +9835,13 @@
       <c r="G303" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:7">
+      <c r="H303" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B304" s="2">
         <v>149.93</v>
@@ -8945,10 +9861,13 @@
       <c r="G304" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B305" s="2">
         <v>61.065</v>
@@ -8968,10 +9887,13 @@
       <c r="G305" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B306" s="2">
         <v>8.460000000000001</v>
@@ -8991,10 +9913,13 @@
       <c r="G306" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B307" s="2">
         <v>41.67</v>
@@ -9014,10 +9939,13 @@
       <c r="G307" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B308" s="2">
         <v>84.89</v>
@@ -9037,10 +9965,13 @@
       <c r="G308" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B309" s="2">
         <v>172.55</v>
@@ -9060,10 +9991,13 @@
       <c r="G309" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B310" s="2">
         <v>103.51</v>
@@ -9083,10 +10017,13 @@
       <c r="G310" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B311" s="2">
         <v>54.69</v>
@@ -9106,10 +10043,13 @@
       <c r="G311" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B312" s="2">
         <v>29.36</v>
@@ -9129,10 +10069,13 @@
       <c r="G312" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B313" s="2">
         <v>115.925</v>
@@ -9152,10 +10095,13 @@
       <c r="G313" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B314" s="2">
         <v>6.695</v>
@@ -9175,10 +10121,13 @@
       <c r="G314" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B315" s="2">
         <v>52.745</v>
@@ -9198,10 +10147,13 @@
       <c r="G315" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B316" s="2">
         <v>44.345</v>
@@ -9221,10 +10173,13 @@
       <c r="G316" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B317" s="2">
         <v>38.135</v>
@@ -9244,10 +10199,13 @@
       <c r="G317" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B318" s="2">
         <v>55.14</v>
@@ -9267,10 +10225,13 @@
       <c r="G318" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B319" s="2">
         <v>26.725</v>
@@ -9290,10 +10251,13 @@
       <c r="G319" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B320" s="2">
         <v>126.7</v>
@@ -9313,10 +10277,13 @@
       <c r="G320" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B321" s="2">
         <v>91.3</v>
@@ -9336,10 +10303,13 @@
       <c r="G321" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B322" s="2">
         <v>50.355</v>
@@ -9359,10 +10329,13 @@
       <c r="G322" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B323" s="2">
         <v>220.91</v>
@@ -9382,10 +10355,13 @@
       <c r="G323" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B324" s="2">
         <v>134.32</v>
@@ -9405,10 +10381,13 @@
       <c r="G324" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B325" s="2">
         <v>92.05</v>
@@ -9428,10 +10407,13 @@
       <c r="G325" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B326" s="2">
         <v>116.135</v>
@@ -9451,10 +10433,13 @@
       <c r="G326" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B327" s="2">
         <v>132.66</v>
@@ -9474,10 +10459,13 @@
       <c r="G327" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B328" s="2">
         <v>34.79</v>
@@ -9497,10 +10485,13 @@
       <c r="G328" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B329" s="2">
         <v>122.18</v>
@@ -9520,10 +10511,13 @@
       <c r="G329" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B330" s="2">
         <v>116.56</v>
@@ -9543,10 +10537,13 @@
       <c r="G330" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B331" s="2">
         <v>38.28</v>
@@ -9566,10 +10563,13 @@
       <c r="G331" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B332" s="2">
         <v>52.335</v>
@@ -9589,10 +10589,13 @@
       <c r="G332" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B333" s="2">
         <v>13.785</v>
@@ -9612,10 +10615,13 @@
       <c r="G333" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B334" s="2">
         <v>40.34</v>
@@ -9635,10 +10641,13 @@
       <c r="G334" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B335" s="2">
         <v>48.575</v>
@@ -9658,10 +10667,13 @@
       <c r="G335" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B336" s="2">
         <v>240.045</v>
@@ -9681,10 +10693,13 @@
       <c r="G336" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B337" s="2">
         <v>23.975</v>
@@ -9704,10 +10719,13 @@
       <c r="G337" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B338" s="2">
         <v>48.605</v>
@@ -9727,10 +10745,13 @@
       <c r="G338" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B339" s="2">
         <v>208.49</v>
@@ -9750,10 +10771,13 @@
       <c r="G339" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B340" s="2">
         <v>28.245</v>
@@ -9773,10 +10797,13 @@
       <c r="G340" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B341" s="2">
         <v>15.32</v>
@@ -9796,10 +10823,13 @@
       <c r="G341" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B342" s="2">
         <v>41.22</v>
@@ -9819,10 +10849,13 @@
       <c r="G342" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B343" s="2">
         <v>95.7</v>
@@ -9842,10 +10875,13 @@
       <c r="G343" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B344" s="2">
         <v>124</v>
@@ -9865,10 +10901,13 @@
       <c r="G344" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B345" s="2">
         <v>160.26</v>
@@ -9888,10 +10927,13 @@
       <c r="G345" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B346" s="2">
         <v>20.075</v>
@@ -9911,10 +10953,13 @@
       <c r="G346" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B347" s="2">
         <v>14.49</v>
@@ -9934,10 +10979,13 @@
       <c r="G347" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B348" s="2">
         <v>145.58</v>
@@ -9957,10 +11005,13 @@
       <c r="G348" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B349" s="2">
         <v>184.71</v>
@@ -9980,10 +11031,13 @@
       <c r="G349" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B350" s="2">
         <v>62.87</v>
@@ -10003,10 +11057,13 @@
       <c r="G350" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B351" s="2">
         <v>337.51</v>
@@ -10026,10 +11083,13 @@
       <c r="G351" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B352" s="2">
         <v>4070.1</v>
@@ -10049,10 +11109,13 @@
       <c r="G352" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B353" s="2">
         <v>36.58</v>
@@ -10072,10 +11135,13 @@
       <c r="G353" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:7">
+      <c r="H353" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B354" s="2">
         <v>14.735</v>
@@ -10095,10 +11161,13 @@
       <c r="G354" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:7">
+      <c r="H354" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B355" s="2">
         <v>51.79</v>
@@ -10118,10 +11187,13 @@
       <c r="G355" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="H355" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B356" s="2">
         <v>11.505</v>
@@ -10141,10 +11213,13 @@
       <c r="G356" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:7">
+      <c r="H356" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B357" s="2">
         <v>34.76</v>
@@ -10164,10 +11239,13 @@
       <c r="G357" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:7">
+      <c r="H357" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B358" s="2">
         <v>35.78</v>
@@ -10187,10 +11265,13 @@
       <c r="G358" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:7">
+      <c r="H358" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B359" s="2">
         <v>228.04</v>
@@ -10210,10 +11291,13 @@
       <c r="G359" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:7">
+      <c r="H359" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B360" s="2">
         <v>40.855</v>
@@ -10233,10 +11317,13 @@
       <c r="G360" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:7">
+      <c r="H360" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B361" s="2">
         <v>24.2</v>
@@ -10256,10 +11343,13 @@
       <c r="G361" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:7">
+      <c r="H361" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B362" s="2">
         <v>91.78</v>
@@ -10279,10 +11369,13 @@
       <c r="G362" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:7">
+      <c r="H362" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B363" s="2">
         <v>19.795</v>
@@ -10302,10 +11395,13 @@
       <c r="G363" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:7">
+      <c r="H363" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B364" s="2">
         <v>47.52</v>
@@ -10325,10 +11421,13 @@
       <c r="G364" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:7">
+      <c r="H364" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B365" s="2">
         <v>61.2</v>
@@ -10348,10 +11447,13 @@
       <c r="G365" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:7">
+      <c r="H365" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B366" s="2">
         <v>238.38</v>
@@ -10371,10 +11473,13 @@
       <c r="G366" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:7">
+      <c r="H366" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B367" s="2">
         <v>49.56</v>
@@ -10394,10 +11499,13 @@
       <c r="G367" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:7">
+      <c r="H367" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B368" s="2">
         <v>31.95</v>
@@ -10417,10 +11525,13 @@
       <c r="G368" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:7">
+      <c r="H368" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B369" s="2">
         <v>490.55</v>
@@ -10440,10 +11551,13 @@
       <c r="G369" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="H369" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B370" s="2">
         <v>34.25</v>
@@ -10463,10 +11577,13 @@
       <c r="G370" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:7">
+      <c r="H370" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B371" s="2">
         <v>186.94</v>
@@ -10486,10 +11603,13 @@
       <c r="G371" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:7">
+      <c r="H371" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B372" s="2">
         <v>70.785</v>
@@ -10509,10 +11629,13 @@
       <c r="G372" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:7">
+      <c r="H372" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B373" s="2">
         <v>63.92</v>
@@ -10532,10 +11655,13 @@
       <c r="G373" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:7">
+      <c r="H373" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B374" s="2">
         <v>78.995</v>
@@ -10555,10 +11681,13 @@
       <c r="G374" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:7">
+      <c r="H374" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B375" s="2">
         <v>68.36</v>
@@ -10578,10 +11707,13 @@
       <c r="G375" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:7">
+      <c r="H375" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B376" s="2">
         <v>44.74</v>
@@ -10601,10 +11733,13 @@
       <c r="G376" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:7">
+      <c r="H376" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
       <c r="A377" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B377" s="2">
         <v>450.2</v>
@@ -10624,10 +11759,13 @@
       <c r="G377" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:7">
+      <c r="H377" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
       <c r="A378" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B378" s="2">
         <v>118.94</v>
@@ -10647,10 +11785,13 @@
       <c r="G378" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:7">
+      <c r="H378" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B379" s="2">
         <v>136.27</v>
@@ -10670,10 +11811,13 @@
       <c r="G379" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:7">
+      <c r="H379" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B380" s="2">
         <v>63.69</v>
@@ -10693,10 +11837,13 @@
       <c r="G380" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:7">
+      <c r="H380" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B381" s="2">
         <v>20.685</v>
@@ -10716,10 +11863,13 @@
       <c r="G381" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:7">
+      <c r="H381" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
       <c r="A382" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B382" s="2">
         <v>80.3</v>
@@ -10739,10 +11889,13 @@
       <c r="G382" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:7">
+      <c r="H382" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
       <c r="A383" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B383" s="2">
         <v>28.96</v>
@@ -10762,10 +11915,13 @@
       <c r="G383" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:7">
+      <c r="H383" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
       <c r="A384" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B384" s="2">
         <v>275.13</v>
@@ -10785,10 +11941,13 @@
       <c r="G384" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:7">
+      <c r="H384" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
       <c r="A385" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B385" s="2">
         <v>60.51</v>
@@ -10808,10 +11967,13 @@
       <c r="G385" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:7">
+      <c r="H385" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
       <c r="A386" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B386" s="2">
         <v>5.835</v>
@@ -10831,10 +11993,13 @@
       <c r="G386" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:7">
+      <c r="H386" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
       <c r="A387" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B387" s="2">
         <v>206.32</v>
@@ -10854,10 +12019,13 @@
       <c r="G387" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:7">
+      <c r="H387" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
       <c r="A388" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B388" s="2">
         <v>100.5</v>
@@ -10877,10 +12045,13 @@
       <c r="G388" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:7">
+      <c r="H388" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B389" s="2">
         <v>9.005000000000001</v>
@@ -10900,10 +12071,13 @@
       <c r="G389" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:7">
+      <c r="H389" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B390" s="2">
         <v>59.44</v>
@@ -10923,10 +12097,13 @@
       <c r="G390" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:7">
+      <c r="H390" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B391" s="2">
         <v>58.005</v>
@@ -10946,10 +12123,13 @@
       <c r="G391" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="H391" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
       <c r="A392" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B392" s="2">
         <v>35.19</v>
@@ -10969,10 +12149,13 @@
       <c r="G392" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:7">
+      <c r="H392" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B393" s="2">
         <v>71.15000000000001</v>
@@ -10992,10 +12175,13 @@
       <c r="G393" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
+      <c r="H393" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
       <c r="A394" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B394" s="2">
         <v>75.84</v>
@@ -11015,10 +12201,13 @@
       <c r="G394" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
+      <c r="H394" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
       <c r="A395" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B395" s="2">
         <v>85.81</v>
@@ -11038,10 +12227,13 @@
       <c r="G395" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:7">
+      <c r="H395" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
       <c r="A396" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B396" s="2">
         <v>49.23</v>
@@ -11061,10 +12253,13 @@
       <c r="G396" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:7">
+      <c r="H396" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
       <c r="A397" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B397" s="2">
         <v>145.17</v>
@@ -11084,10 +12279,13 @@
       <c r="G397" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:7">
+      <c r="H397" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
       <c r="A398" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B398" s="2">
         <v>226.64</v>
@@ -11107,10 +12305,13 @@
       <c r="G398" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:7">
+      <c r="H398" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
       <c r="A399" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B399" s="2">
         <v>17.515</v>
@@ -11130,10 +12331,13 @@
       <c r="G399" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:7">
+      <c r="H399" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8">
       <c r="A400" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B400" s="2">
         <v>124.92</v>
@@ -11153,10 +12357,13 @@
       <c r="G400" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:7">
+      <c r="H400" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
       <c r="A401" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B401" s="2">
         <v>46.8</v>
@@ -11176,10 +12383,13 @@
       <c r="G401" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:7">
+      <c r="H401" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8">
       <c r="A402" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B402" s="2">
         <v>23.14</v>
@@ -11199,10 +12409,13 @@
       <c r="G402" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:7">
+      <c r="H402" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
       <c r="A403" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B403" s="2">
         <v>40.46</v>
@@ -11222,10 +12435,13 @@
       <c r="G403" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:7">
+      <c r="H403" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8">
       <c r="A404" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B404" s="2">
         <v>134.25</v>
@@ -11245,10 +12461,13 @@
       <c r="G404" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:7">
+      <c r="H404" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
       <c r="A405" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B405" s="2">
         <v>124.085</v>
@@ -11268,10 +12487,13 @@
       <c r="G405" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:7">
+      <c r="H405" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B406" s="2">
         <v>19.2</v>
@@ -11291,10 +12513,13 @@
       <c r="G406" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:7">
+      <c r="H406" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8">
       <c r="A407" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B407" s="2">
         <v>261.53</v>
@@ -11314,10 +12539,13 @@
       <c r="G407" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:7">
+      <c r="H407" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B408" s="2">
         <v>85.705</v>
@@ -11337,10 +12565,13 @@
       <c r="G408" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:7">
+      <c r="H408" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
       <c r="A409" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B409" s="2">
         <v>46.13</v>
@@ -11360,10 +12591,13 @@
       <c r="G409" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:7">
+      <c r="H409" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8">
       <c r="A410" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B410" s="2">
         <v>71.55</v>
@@ -11383,10 +12617,13 @@
       <c r="G410" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:7">
+      <c r="H410" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B411" s="2">
         <v>15.235</v>
@@ -11406,10 +12643,13 @@
       <c r="G411" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:7">
+      <c r="H411" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8">
       <c r="A412" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B412" s="2">
         <v>92.52</v>
@@ -11429,10 +12669,13 @@
       <c r="G412" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:7">
+      <c r="H412" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
       <c r="A413" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B413" s="2">
         <v>174.66</v>
@@ -11452,10 +12695,13 @@
       <c r="G413" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:7">
+      <c r="H413" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B414" s="2">
         <v>58.685</v>
@@ -11475,10 +12721,13 @@
       <c r="G414" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:7">
+      <c r="H414" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8">
       <c r="A415" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B415" s="2">
         <v>52.27</v>
@@ -11498,10 +12747,13 @@
       <c r="G415" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:7">
+      <c r="H415" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8">
       <c r="A416" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B416" s="2">
         <v>44.33</v>
@@ -11521,10 +12773,13 @@
       <c r="G416" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:7">
+      <c r="H416" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
       <c r="A417" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B417" s="2">
         <v>42.04</v>
@@ -11544,10 +12799,13 @@
       <c r="G417" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:7">
+      <c r="H417" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
       <c r="A418" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B418" s="2">
         <v>42.3</v>
@@ -11567,10 +12825,13 @@
       <c r="G418" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:7">
+      <c r="H418" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
       <c r="A419" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B419" s="2">
         <v>77.93000000000001</v>
@@ -11590,10 +12851,13 @@
       <c r="G419" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:7">
+      <c r="H419" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
       <c r="A420" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B420" s="2">
         <v>59.255</v>
@@ -11613,10 +12877,13 @@
       <c r="G420" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="H420" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8">
       <c r="A421" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B421" s="2">
         <v>51.83</v>
@@ -11636,10 +12903,13 @@
       <c r="G421" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:7">
+      <c r="H421" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
       <c r="A422" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B422" s="2">
         <v>172.67</v>
@@ -11659,10 +12929,13 @@
       <c r="G422" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:7">
+      <c r="H422" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
       <c r="A423" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B423" s="2">
         <v>156.96</v>
@@ -11682,10 +12955,13 @@
       <c r="G423" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:7">
+      <c r="H423" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
       <c r="A424" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B424" s="2">
         <v>152.875</v>
@@ -11705,10 +12981,13 @@
       <c r="G424" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:7">
+      <c r="H424" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
       <c r="A425" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B425" s="2">
         <v>45.08</v>
@@ -11728,10 +13007,13 @@
       <c r="G425" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:7">
+      <c r="H425" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
       <c r="A426" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B426" s="2">
         <v>22.53</v>
@@ -11751,10 +13033,13 @@
       <c r="G426" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:7">
+      <c r="H426" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
       <c r="A427" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B427" s="2">
         <v>95.685</v>
@@ -11774,10 +13059,13 @@
       <c r="G427" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:7">
+      <c r="H427" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
       <c r="A428" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B428" s="2">
         <v>6.76</v>
@@ -11797,10 +13085,13 @@
       <c r="G428" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:7">
+      <c r="H428" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
       <c r="A429" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B429" s="2">
         <v>28.33</v>
@@ -11820,10 +13111,13 @@
       <c r="G429" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:7">
+      <c r="H429" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B430" s="2">
         <v>59.57</v>
@@ -11843,10 +13137,13 @@
       <c r="G430" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:7">
+      <c r="H430" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
       <c r="A431" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B431" s="2">
         <v>357.545</v>
@@ -11866,10 +13163,13 @@
       <c r="G431" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:7">
+      <c r="H431" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
       <c r="A432" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B432" s="2">
         <v>70.04000000000001</v>
@@ -11889,10 +13189,13 @@
       <c r="G432" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:7">
+      <c r="H432" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
       <c r="A433" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B433" s="2">
         <v>50.635</v>
@@ -11912,10 +13215,13 @@
       <c r="G433" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="H433" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
       <c r="A434" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B434" s="2">
         <v>13.07</v>
@@ -11935,10 +13241,13 @@
       <c r="G434" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="H434" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
       <c r="A435" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B435" s="2">
         <v>311.86</v>
@@ -11958,10 +13267,13 @@
       <c r="G435" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="H435" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
       <c r="A436" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B436" s="2">
         <v>13.94</v>
@@ -11981,10 +13293,13 @@
       <c r="G436" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:7">
+      <c r="H436" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
       <c r="A437" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B437" s="2">
         <v>20.225</v>
@@ -12004,10 +13319,13 @@
       <c r="G437" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:7">
+      <c r="H437" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B438" s="2">
         <v>102.58</v>
@@ -12027,10 +13345,13 @@
       <c r="G438" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:7">
+      <c r="H438" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
       <c r="A439" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B439" s="2">
         <v>65.45</v>
@@ -12050,10 +13371,13 @@
       <c r="G439" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:7">
+      <c r="H439" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
       <c r="A440" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B440" s="2">
         <v>41.9</v>
@@ -12073,10 +13397,13 @@
       <c r="G440" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:7">
+      <c r="H440" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
       <c r="A441" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B441" s="2">
         <v>76.745</v>
@@ -12096,10 +13423,13 @@
       <c r="G441" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:7">
+      <c r="H441" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
       <c r="A442" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B442" s="2">
         <v>135.01</v>
@@ -12119,10 +13449,13 @@
       <c r="G442" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:7">
+      <c r="H442" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
       <c r="A443" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B443" s="2">
         <v>45.95</v>
@@ -12142,10 +13475,13 @@
       <c r="G443" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:7">
+      <c r="H443" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
       <c r="A444" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B444" s="2">
         <v>66.86</v>
@@ -12165,10 +13501,13 @@
       <c r="G444" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:7">
+      <c r="H444" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B445" s="2">
         <v>59.73</v>
@@ -12188,10 +13527,13 @@
       <c r="G445" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:7">
+      <c r="H445" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
       <c r="A446" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B446" s="2">
         <v>43.55</v>
@@ -12211,10 +13553,13 @@
       <c r="G446" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:7">
+      <c r="H446" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
       <c r="A447" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B447" s="2">
         <v>123.885</v>
@@ -12234,10 +13579,13 @@
       <c r="G447" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:7">
+      <c r="H447" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B448" s="2">
         <v>86.01000000000001</v>
@@ -12257,10 +13605,13 @@
       <c r="G448" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:7">
+      <c r="H448" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B449" s="2">
         <v>45.64</v>
@@ -12280,10 +13631,13 @@
       <c r="G449" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:7">
+      <c r="H449" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
       <c r="A450" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B450" s="2">
         <v>64.5</v>
@@ -12303,10 +13657,13 @@
       <c r="G450" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:7">
+      <c r="H450" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
       <c r="A451" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B451" s="2">
         <v>89.72</v>
@@ -12326,10 +13683,13 @@
       <c r="G451" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:7">
+      <c r="H451" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
       <c r="A452" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B452" s="2">
         <v>71.05500000000001</v>
@@ -12349,10 +13709,13 @@
       <c r="G452" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:7">
+      <c r="H452" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
       <c r="A453" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B453" s="2">
         <v>61.58</v>
@@ -12372,10 +13735,13 @@
       <c r="G453" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:7">
+      <c r="H453" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
       <c r="A454" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B454" s="2">
         <v>46.915</v>
@@ -12395,10 +13761,13 @@
       <c r="G454" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:7">
+      <c r="H454" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
       <c r="A455" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B455" s="2">
         <v>21.83</v>
@@ -12418,10 +13787,13 @@
       <c r="G455" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:7">
+      <c r="H455" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
       <c r="A456" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B456" s="2">
         <v>89.245</v>
@@ -12441,10 +13813,13 @@
       <c r="G456" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:7">
+      <c r="H456" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
       <c r="A457" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B457" s="2">
         <v>109.46</v>
@@ -12464,10 +13839,13 @@
       <c r="G457" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:7">
+      <c r="H457" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
       <c r="A458" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B458" s="2">
         <v>132.64</v>
@@ -12487,10 +13865,13 @@
       <c r="G458" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:7">
+      <c r="H458" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B459" s="2">
         <v>79.68000000000001</v>
@@ -12510,10 +13891,13 @@
       <c r="G459" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:7">
+      <c r="H459" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
       <c r="A460" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B460" s="2">
         <v>60.21</v>
@@ -12533,10 +13917,13 @@
       <c r="G460" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:7">
+      <c r="H460" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B461" s="2">
         <v>48.24</v>
@@ -12556,10 +13943,13 @@
       <c r="G461" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:7">
+      <c r="H461" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
       <c r="A462" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B462" s="2">
         <v>92.39</v>
@@ -12579,10 +13969,13 @@
       <c r="G462" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:7">
+      <c r="H462" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
       <c r="A463" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B463" s="2">
         <v>83.255</v>
@@ -12602,10 +13995,13 @@
       <c r="G463" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:7">
+      <c r="H463" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B464" s="2">
         <v>34.34</v>
@@ -12625,10 +14021,13 @@
       <c r="G464" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:7">
+      <c r="H464" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
       <c r="A465" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B465" s="2">
         <v>113.655</v>
@@ -12648,10 +14047,13 @@
       <c r="G465" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:7">
+      <c r="H465" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
       <c r="A466" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B466" s="2">
         <v>89.04000000000001</v>
@@ -12671,10 +14073,13 @@
       <c r="G466" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:7">
+      <c r="H466" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B467" s="2">
         <v>61.96</v>
@@ -12694,10 +14099,13 @@
       <c r="G467" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:7">
+      <c r="H467" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
       <c r="A468" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B468" s="2">
         <v>203.76</v>
@@ -12717,10 +14125,13 @@
       <c r="G468" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:7">
+      <c r="H468" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
       <c r="A469" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B469" s="2">
         <v>129.5</v>
@@ -12740,10 +14151,13 @@
       <c r="G469" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:7">
+      <c r="H469" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8">
       <c r="A470" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B470" s="2">
         <v>79.285</v>
@@ -12763,10 +14177,13 @@
       <c r="G470" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:7">
+      <c r="H470" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8">
       <c r="A471" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B471" s="2">
         <v>105.32</v>
@@ -12786,10 +14203,13 @@
       <c r="G471" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:7">
+      <c r="H471" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
       <c r="A472" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B472" s="2">
         <v>30.44</v>
@@ -12809,10 +14229,13 @@
       <c r="G472" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:7">
+      <c r="H472" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8">
       <c r="A473" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B473" s="2">
         <v>30.435</v>
@@ -12832,10 +14255,13 @@
       <c r="G473" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:7">
+      <c r="H473" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
       <c r="A474" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B474" s="2">
         <v>56.745</v>
@@ -12855,10 +14281,13 @@
       <c r="G474" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:7">
+      <c r="H474" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B475" s="2">
         <v>37.92</v>
@@ -12878,10 +14307,13 @@
       <c r="G475" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:7">
+      <c r="H475" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
       <c r="A476" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B476" s="2">
         <v>42.01</v>
@@ -12901,10 +14333,13 @@
       <c r="G476" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:7">
+      <c r="H476" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B477" s="2">
         <v>16.385</v>
@@ -12924,10 +14359,13 @@
       <c r="G477" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:7">
+      <c r="H477" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
       <c r="A478" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B478" s="2">
         <v>95.27</v>
@@ -12947,10 +14385,13 @@
       <c r="G478" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:7">
+      <c r="H478" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B479" s="2">
         <v>54.54</v>
@@ -12970,10 +14411,13 @@
       <c r="G479" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:7">
+      <c r="H479" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
       <c r="A480" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B480" s="2">
         <v>69.325</v>
@@ -12993,10 +14437,13 @@
       <c r="G480" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:7">
+      <c r="H480" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
       <c r="A481" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B481" s="2">
         <v>42.735</v>
@@ -13016,10 +14463,13 @@
       <c r="G481" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:7">
+      <c r="H481" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B482" s="2">
         <v>98.395</v>
@@ -13039,10 +14489,13 @@
       <c r="G482" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:7">
+      <c r="H482" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
       <c r="A483" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B483" s="2">
         <v>101.22</v>
@@ -13062,10 +14515,13 @@
       <c r="G483" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:7">
+      <c r="H483" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
       <c r="A484" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B484" s="2">
         <v>299.82</v>
@@ -13085,10 +14541,13 @@
       <c r="G484" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:7">
+      <c r="H484" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
       <c r="A485" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B485" s="2">
         <v>33.05</v>
@@ -13108,10 +14567,13 @@
       <c r="G485" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:7">
+      <c r="H485" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
       <c r="A486" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B486" s="2">
         <v>75.23999999999999</v>
@@ -13131,10 +14593,13 @@
       <c r="G486" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:7">
+      <c r="H486" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
       <c r="A487" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B487" s="2">
         <v>21.91</v>
@@ -13154,10 +14619,13 @@
       <c r="G487" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:7">
+      <c r="H487" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
       <c r="A488" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B488" s="2">
         <v>28.37</v>
@@ -13177,10 +14645,13 @@
       <c r="G488" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:7">
+      <c r="H488" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
       <c r="A489" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B489" s="2">
         <v>39.89</v>
@@ -13200,10 +14671,13 @@
       <c r="G489" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:7">
+      <c r="H489" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
       <c r="A490" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B490" s="2">
         <v>230.4</v>
@@ -13223,10 +14697,13 @@
       <c r="G490" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:7">
+      <c r="H490" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
       <c r="A491" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B491" s="2">
         <v>26.02</v>
@@ -13246,10 +14723,13 @@
       <c r="G491" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:7">
+      <c r="H491" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
       <c r="A492" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B492" s="2">
         <v>45.525</v>
@@ -13269,10 +14749,13 @@
       <c r="G492" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:7">
+      <c r="H492" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
       <c r="A493" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B493" s="2">
         <v>27.575</v>
@@ -13292,10 +14775,13 @@
       <c r="G493" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:7">
+      <c r="H493" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
       <c r="A494" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B494" s="2">
         <v>22.21</v>
@@ -13315,10 +14801,13 @@
       <c r="G494" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:7">
+      <c r="H494" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="A495" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B495" s="2">
         <v>95.65000000000001</v>
@@ -13338,10 +14827,13 @@
       <c r="G495" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:7">
+      <c r="H495" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
       <c r="A496" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B496" s="2">
         <v>1156.8</v>
@@ -13361,10 +14853,13 @@
       <c r="G496" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:7">
+      <c r="H496" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
       <c r="A497" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B497" s="2">
         <v>36.95</v>
@@ -13384,10 +14879,13 @@
       <c r="G497" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:7">
+      <c r="H497" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
       <c r="A498" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B498" s="2">
         <v>387.47</v>
@@ -13407,10 +14905,13 @@
       <c r="G498" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:7">
+      <c r="H498" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
       <c r="A499" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B499" s="2">
         <v>15.405</v>
@@ -13430,10 +14931,13 @@
       <c r="G499" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:7">
+      <c r="H499" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
       <c r="A500" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B500" s="2">
         <v>245.7</v>
@@ -13453,10 +14957,13 @@
       <c r="G500" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:7">
+      <c r="H500" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
       <c r="A501" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B501" s="2">
         <v>22.83</v>
@@ -13476,10 +14983,13 @@
       <c r="G501" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:7">
+      <c r="H501" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
       <c r="A502" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B502" s="2">
         <v>46.85</v>
@@ -13499,10 +15009,13 @@
       <c r="G502" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:7">
+      <c r="H502" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
       <c r="A503" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B503" s="2">
         <v>31.34</v>
@@ -13522,10 +15035,13 @@
       <c r="G503" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:7">
+      <c r="H503" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
       <c r="A504" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B504" s="2">
         <v>72.88</v>
@@ -13545,10 +15061,13 @@
       <c r="G504" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:7">
+      <c r="H504" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
       <c r="A505" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B505" s="2">
         <v>59.81</v>
@@ -13568,10 +15087,13 @@
       <c r="G505" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:7">
+      <c r="H505" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
       <c r="A506" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B506" s="2">
         <v>15.78</v>
@@ -13590,6 +15112,9 @@
       </c>
       <c r="G506" s="5">
         <v>0</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
